--- a/biology/Microbiologie/Nassulopsidae/Nassulopsidae.xlsx
+++ b/biology/Microbiologie/Nassulopsidae/Nassulopsidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nassulopsida
 Les Nassulopsidae sont une famille de Ciliés de la classe des Nassophorea et de l’ordre des Synhymeniida, ou bien uniques représentants de l'ordre des Nassulopsida.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Nassulopsis, composé du préfixe nassul-, par allusion au genre Nassula (genre type de la famille des Nassulidae), et du suffixe latin -opsis « semblable à », littéralement « semblable à un Nassula ».
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Nassulopsidae ont une taille moyenne (80 à 200 μm) à grande (&gt; 200 μm) ; une forme allongée et à symétrie radiale. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est holotriche (c. à d. uniforme) avec une suture polaire antérieure séparée de la région buccale et du « synhyménium » (membrane ou frange située sous la bouche). Ce dernier s'étend presque complètement autour de la circonférence du corps, juste en dessous du niveau de l'appareil cytostome-cytopharyngien. Leur cytostome se situe dans 1/4 antérieur du corps. Leur macronoyau est globuleux à ellipsoïde. Un micronoyau est présent. La vacuole contractile est située sur le milieu de la face ventrale. Ils se nourrissent de microalgues (notamment de diatomées) et de cyanobactéries[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Nassulopsidae ont une taille moyenne (80 à 200 μm) à grande (&gt; 200 μm) ; une forme allongée et à symétrie radiale. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est holotriche (c. à d. uniforme) avec une suture polaire antérieure séparée de la région buccale et du « synhyménium » (membrane ou frange située sous la bouche). Ce dernier s'étend presque complètement autour de la circonférence du corps, juste en dessous du niveau de l'appareil cytostome-cytopharyngien. Leur cytostome se situe dans 1/4 antérieur du corps. Leur macronoyau est globuleux à ellipsoïde. Un micronoyau est présent. La vacuole contractile est située sur le milieu de la face ventrale. Ils se nourrissent de microalgues (notamment de diatomées) et de cyanobactéries.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Nassulopsidae vivent dans des habitats marins, d'eau douce et parfois terrestres[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Nassulopsidae vivent dans des habitats marins, d'eau douce et parfois terrestres.
 </t>
         </is>
       </c>
@@ -605,14 +623,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (26 juillet 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (26 juillet 2023) :
 Nassulopsis Fauré-Fremiet, 1959
 Genre synonyme : Enneameron Jankowski, 1964
 Espèce type : Nassulopsis elegans (Ehrenberg, 1833) Foissner, Berger &amp; Kohmann, 1994
 Espèce synonyme : Nassula elegans Ehrenberg, 1833
-Selon Lynn (2008)[1] :
+Selon Lynn (2008) :
 Beersena Jankowski, 1989 (remplace le genre Phasmatopsis Deroux, 1978)
 Nassulopsis Foissner, Berger, &amp; Kohmann, 1994</t>
         </is>
@@ -642,9 +662,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de cette famille est Nassulopsidae Deroux in Corliss, 1979[3] ; celui de l'ordre est Nassulopsida Deroux in de Puytorac et al., 1993[4]. D'autres sources[3],[5],[6] placent la famille dans l'ordre des Synhymeniida.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de cette famille est Nassulopsidae Deroux in Corliss, 1979 ; celui de l'ordre est Nassulopsida Deroux in de Puytorac et al., 1993. D'autres sources placent la famille dans l'ordre des Synhymeniida.
 </t>
         </is>
       </c>
